--- a/schedules.xlsx
+++ b/schedules.xlsx
@@ -10,6 +10,8 @@
     <sheet name="Schedule-2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Schedule-3" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Schedule-4" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Schedule-5" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Schedule-6" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -163,46 +165,49 @@
     <t>23:30</t>
   </si>
   <si>
-    <t>AP (0004) Coleman</t>
-  </si>
-  <si>
-    <t>AP (0009) Woodard</t>
-  </si>
-  <si>
-    <t>Commercialization (0006) Rivers</t>
+    <t>Ciberseguridad 8c (3282) Diana Gabriela</t>
+  </si>
+  <si>
+    <t>Ciberseguridad 8c (3284) Diana Gabriela</t>
+  </si>
+  <si>
+    <t>Filosofía de la persona 6c (5593) Mariana Flores Rabasa</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>Integral Calculus (0003) Rollins</t>
-  </si>
-  <si>
-    <t>Integral Calculus (0008) Key</t>
-  </si>
-  <si>
-    <t>Leadership (0007) Crawford</t>
-  </si>
-  <si>
-    <t>Lineal Algebra (0005) Armstrong</t>
-  </si>
-  <si>
-    <t>Lineal Algebra (0010) Aguilar</t>
+    <t>Hist. Patrística y Edad Media 8c (6002) Mauricio Lecon Rosales</t>
+  </si>
+  <si>
+    <t>Logica predicados 6c (5590) Karen</t>
+  </si>
+  <si>
+    <t>Mat Comp 6c (5319) David Iván Morales Huerta</t>
+  </si>
+  <si>
+    <t>Mat Comp 6c (5320) David Iván Morales Huerta</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>OOP (0001) Mathews</t>
-  </si>
-  <si>
-    <t>Person and Society (0002) Cohen</t>
+    <t>NLP 8c (3278) Enrique González Núñez</t>
+  </si>
+  <si>
+    <t>NLP 8c (3280) Iván Roberto Rojas</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>Telematica 7c (3268) David Cordova Camet</t>
+  </si>
+  <si>
+    <t>Telematica 7c (3269) Shady Moussa Karam</t>
   </si>
   <si>
     <t>Thursday</t>
@@ -277,25 +282,25 @@
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -446,15 +451,11 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
     </row>
@@ -462,15 +463,11 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F15" s="1" t="n"/>
       <c r="G15" s="1" t="n"/>
       <c r="H15" s="1" t="n"/>
     </row>
@@ -478,15 +475,11 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
     </row>
@@ -495,15 +488,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -513,15 +504,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="1" t="n"/>
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="n"/>
       <c r="H18" s="1" t="n"/>
@@ -531,15 +524,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="1" t="n"/>
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G19" s="1" t="n"/>
       <c r="H19" s="1" t="n"/>
@@ -549,19 +544,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1" t="n"/>
       <c r="H20" s="1" t="n"/>
@@ -570,21 +563,15 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
     </row>
@@ -592,21 +579,15 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="n"/>
       <c r="E22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="n"/>
       <c r="G22" s="1" t="n"/>
       <c r="H22" s="1" t="n"/>
     </row>
@@ -614,21 +595,15 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="F23" s="1" t="n"/>
       <c r="G23" s="1" t="n"/>
       <c r="H23" s="1" t="n"/>
     </row>
@@ -636,19 +611,15 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1" t="n"/>
       <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="n"/>
     </row>
@@ -656,20 +627,16 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
@@ -678,20 +645,16 @@
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
@@ -701,16 +664,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G27" s="1" t="n"/>
       <c r="H27" s="1" t="n"/>
     </row>
@@ -718,13 +679,15 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="n"/>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G28" s="1" t="n"/>
       <c r="H28" s="1" t="n"/>
     </row>
@@ -732,7 +695,9 @@
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="n"/>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="n"/>
@@ -744,7 +709,9 @@
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="n"/>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n"/>
@@ -769,10 +736,14 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="n"/>
-      <c r="F32" s="1" t="n"/>
+      <c r="F32" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G32" s="1" t="n"/>
       <c r="H32" s="1" t="n"/>
     </row>
@@ -781,10 +752,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n"/>
-      <c r="F33" s="1" t="n"/>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G33" s="1" t="n"/>
       <c r="H33" s="1" t="n"/>
     </row>
@@ -792,11 +767,17 @@
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="n"/>
-      <c r="F34" s="1" t="n"/>
+      <c r="F34" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G34" s="1" t="n"/>
       <c r="H34" s="1" t="n"/>
     </row>
@@ -805,88 +786,84 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="1" t="n"/>
+      <c r="D35" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="1" t="n"/>
-      <c r="G35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="F35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="1" t="n"/>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="1" t="n"/>
-      <c r="G36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="1" t="n"/>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F37" s="1" t="n"/>
-      <c r="G37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="1" t="n"/>
+      <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="1" t="n"/>
-      <c r="G38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="F38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
@@ -895,8 +872,12 @@
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n"/>
-      <c r="E39" s="1" t="n"/>
-      <c r="F39" s="1" t="n"/>
+      <c r="E39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G39" s="1" t="n"/>
       <c r="H39" s="1" t="n"/>
     </row>
@@ -907,8 +888,12 @@
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="n"/>
-      <c r="E40" s="1" t="n"/>
-      <c r="F40" s="1" t="n"/>
+      <c r="E40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G40" s="1" t="n"/>
       <c r="H40" s="1" t="n"/>
     </row>
@@ -917,10 +902,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
+      <c r="C41" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D41" s="1" t="n"/>
-      <c r="E41" s="1" t="n"/>
-      <c r="F41" s="1" t="n"/>
+      <c r="E41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G41" s="1" t="n"/>
       <c r="H41" s="1" t="n"/>
     </row>
@@ -929,7 +920,9 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
@@ -941,7 +934,9 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
+      <c r="C43" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="n"/>
       <c r="F43" s="1" t="n"/>
@@ -953,7 +948,9 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="n"/>
       <c r="F44" s="1" t="n"/>
@@ -1034,25 +1031,25 @@
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1203,15 +1200,11 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
     </row>
@@ -1219,15 +1212,11 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F15" s="1" t="n"/>
       <c r="G15" s="1" t="n"/>
       <c r="H15" s="1" t="n"/>
     </row>
@@ -1235,15 +1224,11 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
     </row>
@@ -1252,13 +1237,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -1267,11 +1252,21 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" s="1" t="n"/>
       <c r="H18" s="1" t="n"/>
     </row>
@@ -1279,11 +1274,21 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G19" s="1" t="n"/>
       <c r="H19" s="1" t="n"/>
     </row>
@@ -1292,17 +1297,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1" t="n"/>
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G20" s="1" t="n"/>
       <c r="H20" s="1" t="n"/>
@@ -1311,21 +1318,17 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
     </row>
@@ -1333,21 +1336,15 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="n"/>
       <c r="E22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="n"/>
       <c r="G22" s="1" t="n"/>
       <c r="H22" s="1" t="n"/>
     </row>
@@ -1355,21 +1352,15 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="F23" s="1" t="n"/>
       <c r="G23" s="1" t="n"/>
       <c r="H23" s="1" t="n"/>
     </row>
@@ -1377,19 +1368,15 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1" t="n"/>
       <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="n"/>
     </row>
@@ -1397,20 +1384,16 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
@@ -1419,20 +1402,16 @@
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
@@ -1442,16 +1421,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G27" s="1" t="n"/>
       <c r="H27" s="1" t="n"/>
     </row>
@@ -1459,13 +1436,15 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="n"/>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G28" s="1" t="n"/>
       <c r="H28" s="1" t="n"/>
     </row>
@@ -1478,12 +1457,8 @@
       </c>
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
       <c r="G29" s="1" t="n"/>
       <c r="H29" s="1" t="n"/>
     </row>
@@ -1496,12 +1471,8 @@
       </c>
       <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="n"/>
-      <c r="E30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
       <c r="G30" s="1" t="n"/>
       <c r="H30" s="1" t="n"/>
     </row>
@@ -1509,17 +1480,11 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
       <c r="G31" s="1" t="n"/>
       <c r="H31" s="1" t="n"/>
     </row>
@@ -1528,15 +1493,17 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="1" t="n"/>
+        <v>62</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1" t="n"/>
       <c r="H32" s="1" t="n"/>
@@ -1545,11 +1512,19 @@
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D33" s="1" t="n"/>
-      <c r="E33" s="1" t="n"/>
-      <c r="F33" s="1" t="n"/>
+      <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G33" s="1" t="n"/>
       <c r="H33" s="1" t="n"/>
     </row>
@@ -1557,11 +1532,19 @@
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D34" s="1" t="n"/>
-      <c r="E34" s="1" t="n"/>
-      <c r="F34" s="1" t="n"/>
+      <c r="E34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G34" s="1" t="n"/>
       <c r="H34" s="1" t="n"/>
     </row>
@@ -1570,88 +1553,66 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="n"/>
       <c r="E35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="1" t="n"/>
-      <c r="G35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1" t="n"/>
-      <c r="G36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="n"/>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F37" s="1" t="n"/>
-      <c r="G37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="n"/>
       <c r="E38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="1" t="n"/>
-      <c r="G38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
@@ -1660,8 +1621,12 @@
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n"/>
-      <c r="E39" s="1" t="n"/>
-      <c r="F39" s="1" t="n"/>
+      <c r="E39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G39" s="1" t="n"/>
       <c r="H39" s="1" t="n"/>
     </row>
@@ -1672,8 +1637,12 @@
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="n"/>
-      <c r="E40" s="1" t="n"/>
-      <c r="F40" s="1" t="n"/>
+      <c r="E40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G40" s="1" t="n"/>
       <c r="H40" s="1" t="n"/>
     </row>
@@ -1682,10 +1651,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
+      <c r="C41" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D41" s="1" t="n"/>
-      <c r="E41" s="1" t="n"/>
-      <c r="F41" s="1" t="n"/>
+      <c r="E41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G41" s="1" t="n"/>
       <c r="H41" s="1" t="n"/>
     </row>
@@ -1694,7 +1669,9 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
@@ -1706,7 +1683,9 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
+      <c r="C43" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="n"/>
       <c r="F43" s="1" t="n"/>
@@ -1718,7 +1697,9 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="n"/>
       <c r="F44" s="1" t="n"/>
@@ -1799,25 +1780,25 @@
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -1968,15 +1949,11 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
     </row>
@@ -1984,15 +1961,11 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F15" s="1" t="n"/>
       <c r="G15" s="1" t="n"/>
       <c r="H15" s="1" t="n"/>
     </row>
@@ -2000,15 +1973,11 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
     </row>
@@ -2017,17 +1986,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -2036,15 +2001,21 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="n"/>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" s="1" t="n"/>
       <c r="H18" s="1" t="n"/>
     </row>
@@ -2052,15 +2023,21 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="n"/>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G19" s="1" t="n"/>
       <c r="H19" s="1" t="n"/>
     </row>
@@ -2069,19 +2046,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G20" s="1" t="n"/>
       <c r="H20" s="1" t="n"/>
@@ -2090,21 +2067,17 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
     </row>
@@ -2112,21 +2085,15 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="n"/>
       <c r="E22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="n"/>
       <c r="G22" s="1" t="n"/>
       <c r="H22" s="1" t="n"/>
     </row>
@@ -2134,21 +2101,15 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F23" s="1" t="n"/>
       <c r="G23" s="1" t="n"/>
       <c r="H23" s="1" t="n"/>
     </row>
@@ -2158,12 +2119,12 @@
       </c>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F24" s="1" t="n"/>
       <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="n"/>
@@ -2174,13 +2135,15 @@
       </c>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="1" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
     </row>
@@ -2188,17 +2151,17 @@
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="1" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
     </row>
@@ -2207,14 +2170,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="n"/>
-      <c r="E27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G27" s="1" t="n"/>
       <c r="H27" s="1" t="n"/>
     </row>
@@ -2223,14 +2186,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G28" s="1" t="n"/>
       <c r="H28" s="1" t="n"/>
     </row>
@@ -2239,16 +2202,12 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
       <c r="G29" s="1" t="n"/>
       <c r="H29" s="1" t="n"/>
     </row>
@@ -2261,12 +2220,8 @@
       </c>
       <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="n"/>
-      <c r="E30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
       <c r="G30" s="1" t="n"/>
       <c r="H30" s="1" t="n"/>
     </row>
@@ -2274,17 +2229,11 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
       <c r="G31" s="1" t="n"/>
       <c r="H31" s="1" t="n"/>
     </row>
@@ -2293,16 +2242,14 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="n"/>
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F32" s="1" t="n"/>
       <c r="G32" s="1" t="n"/>
       <c r="H32" s="1" t="n"/>
     </row>
@@ -2310,10 +2257,14 @@
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="n"/>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="n"/>
-      <c r="E33" s="1" t="n"/>
+      <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F33" s="1" t="n"/>
       <c r="G33" s="1" t="n"/>
       <c r="H33" s="1" t="n"/>
@@ -2322,10 +2273,14 @@
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="n"/>
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C34" s="1" t="n"/>
       <c r="D34" s="1" t="n"/>
-      <c r="E34" s="1" t="n"/>
+      <c r="E34" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F34" s="1" t="n"/>
       <c r="G34" s="1" t="n"/>
       <c r="H34" s="1" t="n"/>
@@ -2335,98 +2290,88 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="n"/>
       <c r="E35" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F35" s="1" t="n"/>
-      <c r="G35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1" t="n"/>
-      <c r="G36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="1" t="n"/>
+        <v>55</v>
+      </c>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F37" s="1" t="n"/>
-      <c r="G37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="1" t="n"/>
+        <v>55</v>
+      </c>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="1" t="n"/>
-      <c r="G38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="n"/>
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C39" s="1" t="n"/>
-      <c r="D39" s="1" t="n"/>
-      <c r="E39" s="1" t="n"/>
-      <c r="F39" s="1" t="n"/>
+      <c r="D39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G39" s="1" t="n"/>
       <c r="H39" s="1" t="n"/>
     </row>
@@ -2434,11 +2379,19 @@
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="n"/>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C40" s="1" t="n"/>
-      <c r="D40" s="1" t="n"/>
-      <c r="E40" s="1" t="n"/>
-      <c r="F40" s="1" t="n"/>
+      <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G40" s="1" t="n"/>
       <c r="H40" s="1" t="n"/>
     </row>
@@ -2447,10 +2400,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
+      <c r="C41" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D41" s="1" t="n"/>
-      <c r="E41" s="1" t="n"/>
-      <c r="F41" s="1" t="n"/>
+      <c r="E41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G41" s="1" t="n"/>
       <c r="H41" s="1" t="n"/>
     </row>
@@ -2459,7 +2418,9 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
@@ -2471,7 +2432,9 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
+      <c r="C43" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="n"/>
       <c r="F43" s="1" t="n"/>
@@ -2483,7 +2446,9 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="n"/>
       <c r="F44" s="1" t="n"/>
@@ -2564,25 +2529,25 @@
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
@@ -2733,15 +2698,11 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
     </row>
@@ -2749,15 +2710,11 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F15" s="1" t="n"/>
       <c r="G15" s="1" t="n"/>
       <c r="H15" s="1" t="n"/>
     </row>
@@ -2765,15 +2722,11 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
     </row>
@@ -2782,17 +2735,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -2801,15 +2750,19 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="n"/>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="1" t="n"/>
       <c r="H18" s="1" t="n"/>
     </row>
@@ -2817,15 +2770,19 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="n"/>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G19" s="1" t="n"/>
       <c r="H19" s="1" t="n"/>
     </row>
@@ -2833,15 +2790,19 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="n"/>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G20" s="1" t="n"/>
       <c r="H20" s="1" t="n"/>
     </row>
@@ -2851,12 +2812,12 @@
       </c>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="1" t="n"/>
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
@@ -2867,12 +2828,12 @@
       </c>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="1" t="n"/>
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F22" s="1" t="n"/>
       <c r="G22" s="1" t="n"/>
       <c r="H22" s="1" t="n"/>
@@ -2881,16 +2842,14 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="1" t="n"/>
       <c r="F23" s="1" t="n"/>
       <c r="G23" s="1" t="n"/>
       <c r="H23" s="1" t="n"/>
@@ -2899,16 +2858,14 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F24" s="1" t="n"/>
       <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="n"/>
@@ -2917,19 +2874,17 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="1" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
     </row>
@@ -2937,19 +2892,17 @@
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="1" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
     </row>
@@ -2958,16 +2911,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G27" s="1" t="n"/>
       <c r="H27" s="1" t="n"/>
     </row>
@@ -2976,14 +2927,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G28" s="1" t="n"/>
       <c r="H28" s="1" t="n"/>
     </row>
@@ -2992,18 +2943,12 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
       <c r="G29" s="1" t="n"/>
       <c r="H29" s="1" t="n"/>
     </row>
@@ -3014,16 +2959,10 @@
       <c r="B30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="n"/>
-      <c r="E30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
       <c r="G30" s="1" t="n"/>
       <c r="H30" s="1" t="n"/>
     </row>
@@ -3031,19 +2970,11 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
       <c r="G31" s="1" t="n"/>
       <c r="H31" s="1" t="n"/>
     </row>
@@ -3051,18 +2982,14 @@
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="n"/>
-      <c r="E32" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E32" s="1" t="n"/>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1" t="n"/>
       <c r="H32" s="1" t="n"/>
@@ -3072,10 +2999,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n"/>
-      <c r="F33" s="1" t="n"/>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G33" s="1" t="n"/>
       <c r="H33" s="1" t="n"/>
     </row>
@@ -3083,11 +3014,17 @@
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="n"/>
-      <c r="F34" s="1" t="n"/>
+      <c r="F34" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G34" s="1" t="n"/>
       <c r="H34" s="1" t="n"/>
     </row>
@@ -3096,88 +3033,82 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="1" t="n"/>
+      <c r="D35" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="1" t="n"/>
-      <c r="G35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="F35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="1" t="n"/>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="1" t="n"/>
-      <c r="G36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="1" t="n"/>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F37" s="1" t="n"/>
-      <c r="G37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="1" t="n"/>
+      <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="1" t="n"/>
-      <c r="G38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
@@ -3207,11 +3138,17 @@
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="n"/>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C41" s="1" t="n"/>
-      <c r="D41" s="1" t="n"/>
+      <c r="D41" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E41" s="1" t="n"/>
-      <c r="F41" s="1" t="n"/>
+      <c r="F41" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G41" s="1" t="n"/>
       <c r="H41" s="1" t="n"/>
     </row>
@@ -3219,11 +3156,17 @@
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="n"/>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C42" s="1" t="n"/>
-      <c r="D42" s="1" t="n"/>
+      <c r="D42" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E42" s="1" t="n"/>
-      <c r="F42" s="1" t="n"/>
+      <c r="F42" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G42" s="1" t="n"/>
       <c r="H42" s="1" t="n"/>
     </row>
@@ -3231,11 +3174,17 @@
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="n"/>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C43" s="1" t="n"/>
-      <c r="D43" s="1" t="n"/>
+      <c r="D43" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E43" s="1" t="n"/>
-      <c r="F43" s="1" t="n"/>
+      <c r="F43" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G43" s="1" t="n"/>
       <c r="H43" s="1" t="n"/>
     </row>
@@ -3243,11 +3192,17 @@
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="n"/>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C44" s="1" t="n"/>
-      <c r="D44" s="1" t="n"/>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E44" s="1" t="n"/>
-      <c r="F44" s="1" t="n"/>
+      <c r="F44" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G44" s="1" t="n"/>
       <c r="H44" s="1" t="n"/>
     </row>
@@ -3313,4 +3268,1506 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6"/>
+    <col bestFit="1" customWidth="1" max="8" min="2" width="20"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="10">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="12">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="14">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="17">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="18">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="19">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="20">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="21">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="22">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="23">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="24">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="26">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="27">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="28">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="29">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="30">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="31">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="H31" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="32">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="33">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="34">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="1" t="n"/>
+      <c r="H34" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="35">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="36">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="37">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="38">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="39">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="40">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="41">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="42">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="43">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="44">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="1" t="n"/>
+      <c r="F44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="45">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="46">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+      <c r="F46" s="1" t="n"/>
+      <c r="G46" s="1" t="n"/>
+      <c r="H46" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="47">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+      <c r="F47" s="1" t="n"/>
+      <c r="G47" s="1" t="n"/>
+      <c r="H47" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="48">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="49">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
+      <c r="G49" s="1" t="n"/>
+      <c r="H49" s="1" t="n"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6"/>
+    <col bestFit="1" customWidth="1" max="8" min="2" width="20"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="10">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="12">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="14">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="17">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="18">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="19">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="20">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="21">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="22">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="23">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="24">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="26">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="27">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="28">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="29">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="30">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="31">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="H31" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="32">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="33">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="34">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+      <c r="H34" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="35">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="36">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="37">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="38">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="39">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="40">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="41">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="42">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="43">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="44">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="1" t="n"/>
+      <c r="F44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="45">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="46">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+      <c r="F46" s="1" t="n"/>
+      <c r="G46" s="1" t="n"/>
+      <c r="H46" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="47">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+      <c r="F47" s="1" t="n"/>
+      <c r="G47" s="1" t="n"/>
+      <c r="H47" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="48">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" outlineLevel="0" r="49">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
+      <c r="G49" s="1" t="n"/>
+      <c r="H49" s="1" t="n"/>
+    </row>
+  </sheetData>
+</worksheet>
 </file>